--- a/00_Document/03_Testing/02_Frontend/01_テスト仕様書/管理者＿スタッフ画面＿テスト仕様書.xlsx
+++ b/00_Document/03_Testing/02_Frontend/01_テスト仕様書/管理者＿スタッフ画面＿テスト仕様書.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A49AB7-32DD-44B6-9D51-F90E2DFC1DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="737" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" tabRatio="737"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -14,9 +13,9 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">エビデンス!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="1">'基本情報（従業員）'!$1:$4</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">基本情報（従業員）!$1:$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,12 +25,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="AI4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="AI4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -46,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BD4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="BD4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -61,7 +60,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="BF4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="BF4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -81,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -242,21 +241,7 @@
     <t>確認結果</t>
   </si>
   <si>
-    <t>01_001_001</t>
-  </si>
-  <si>
-    <t>01_001_002</t>
-  </si>
-  <si>
-    <t>01_001_003</t>
-  </si>
-  <si>
     <t>ログイン</t>
-  </si>
-  <si>
-    <t xml:space="preserve">スタッフID
-テキストフィールド
-</t>
   </si>
   <si>
     <t>１．ログイン画面へ移動すること
@@ -281,16 +266,7 @@
 staffId or Password is wrong!】</t>
   </si>
   <si>
-    <t>01_001_004</t>
-  </si>
-  <si>
     <t>01_001_005</t>
-  </si>
-  <si>
-    <t>01_001_006</t>
-  </si>
-  <si>
-    <t>01_001_007</t>
   </si>
   <si>
     <t>Phyu</t>
@@ -389,12 +365,15 @@
     <t xml:space="preserve">１．ボタンが無効であること
 ２．ボタンが押下できないこと
 </t>
+  </si>
+  <si>
+    <t>01_002_005</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d"/>
   </numFmts>
@@ -882,140 +861,140 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1060,7 +1039,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A9FDAB5-441A-4067-944B-AA3C60B8FD5B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4A9FDAB5-441A-4067-944B-AA3C60B8FD5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1109,7 +1088,7 @@
         <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08BED27B-83D5-4DAA-AF8B-36223D28764F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08BED27B-83D5-4DAA-AF8B-36223D28764F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1158,7 +1137,7 @@
         <xdr:cNvPr id="4" name="Picture 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{985F6E35-5B19-43DD-8B0D-9CF0DF179119}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{985F6E35-5B19-43DD-8B0D-9CF0DF179119}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1207,7 +1186,7 @@
         <xdr:cNvPr id="5" name="Picture 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E46353-69BC-431C-BF30-88DD47FC0C39}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{B1E46353-69BC-431C-BF30-88DD47FC0C39}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1256,7 +1235,7 @@
         <xdr:cNvPr id="6" name="Rounded Rectangular Callout 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02FFC33-A308-452F-90AD-4750182C890C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A02FFC33-A308-452F-90AD-4750182C890C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1370,7 +1349,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6EB8338-48F9-4D04-91C4-BFE6F72A06BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D6EB8338-48F9-4D04-91C4-BFE6F72A06BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1693,27 +1672,27 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="H13:AL18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18:X18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="P18" sqref="P18:T18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.149999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="45" width="2.5703125" style="1" customWidth="1"/>
-    <col min="46" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="45" width="2.54296875" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="13" spans="9:37" ht="16.149999999999999" customHeight="1">
@@ -1839,7 +1818,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
       <c r="P18" s="18" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="Q18" s="18"/>
       <c r="R18" s="18"/>
@@ -1892,701 +1871,699 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:BM23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="H4" sqref="H4"/>
-      <selection pane="bottomLeft" activeCell="AI9" sqref="AI9:AW9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.149999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="49" width="2.85546875" style="1" customWidth="1"/>
-    <col min="50" max="62" width="2.5703125" style="1" customWidth="1"/>
-    <col min="63" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="49" width="2.81640625" style="1" customWidth="1"/>
+    <col min="50" max="62" width="2.54296875" style="1" customWidth="1"/>
+    <col min="63" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:65" ht="16.149999999999999" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="39"/>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="43" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" s="46"/>
-      <c r="Z1" s="46"/>
-      <c r="AA1" s="46"/>
-      <c r="AB1" s="46"/>
-      <c r="AC1" s="46"/>
-      <c r="AD1" s="46"/>
-      <c r="AE1" s="46"/>
-      <c r="AF1" s="46"/>
-      <c r="AG1" s="46"/>
-      <c r="AH1" s="46"/>
-      <c r="AI1" s="46"/>
-      <c r="AJ1" s="46"/>
-      <c r="AK1" s="46"/>
-      <c r="AL1" s="46"/>
-      <c r="AM1" s="46"/>
-      <c r="AN1" s="46"/>
-      <c r="AO1" s="46"/>
-      <c r="AP1" s="46"/>
-      <c r="AQ1" s="46"/>
-      <c r="AR1" s="46"/>
-      <c r="AS1" s="46"/>
-      <c r="AT1" s="47"/>
-      <c r="AU1" s="51" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="42"/>
+      <c r="AC1" s="42"/>
+      <c r="AD1" s="42"/>
+      <c r="AE1" s="42"/>
+      <c r="AF1" s="42"/>
+      <c r="AG1" s="42"/>
+      <c r="AH1" s="42"/>
+      <c r="AI1" s="42"/>
+      <c r="AJ1" s="42"/>
+      <c r="AK1" s="42"/>
+      <c r="AL1" s="42"/>
+      <c r="AM1" s="42"/>
+      <c r="AN1" s="42"/>
+      <c r="AO1" s="42"/>
+      <c r="AP1" s="42"/>
+      <c r="AQ1" s="42"/>
+      <c r="AR1" s="42"/>
+      <c r="AS1" s="42"/>
+      <c r="AT1" s="43"/>
+      <c r="AU1" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="53"/>
-      <c r="AX1" s="57">
+      <c r="AV1" s="48"/>
+      <c r="AW1" s="49"/>
+      <c r="AX1" s="53">
         <v>44943</v>
       </c>
-      <c r="AY1" s="58"/>
-      <c r="AZ1" s="58"/>
-      <c r="BA1" s="58"/>
-      <c r="BB1" s="58"/>
-      <c r="BC1" s="59"/>
-      <c r="BD1" s="63" t="s">
+      <c r="AY1" s="54"/>
+      <c r="AZ1" s="54"/>
+      <c r="BA1" s="54"/>
+      <c r="BB1" s="54"/>
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="53"/>
-      <c r="BG1" s="24"/>
-      <c r="BH1" s="25"/>
-      <c r="BI1" s="25"/>
-      <c r="BJ1" s="26"/>
+      <c r="BE1" s="48"/>
+      <c r="BF1" s="49"/>
+      <c r="BG1" s="20"/>
+      <c r="BH1" s="21"/>
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="22"/>
     </row>
     <row r="2" spans="1:65" ht="16.149999999999999" customHeight="1" thickBot="1">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="48"/>
-      <c r="Y2" s="49"/>
-      <c r="Z2" s="49"/>
-      <c r="AA2" s="49"/>
-      <c r="AB2" s="49"/>
-      <c r="AC2" s="49"/>
-      <c r="AD2" s="49"/>
-      <c r="AE2" s="49"/>
-      <c r="AF2" s="49"/>
-      <c r="AG2" s="49"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="50"/>
-      <c r="AU2" s="54"/>
-      <c r="AV2" s="55"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="60"/>
-      <c r="AY2" s="61"/>
-      <c r="AZ2" s="61"/>
-      <c r="BA2" s="61"/>
-      <c r="BB2" s="61"/>
-      <c r="BC2" s="62"/>
-      <c r="BD2" s="64"/>
-      <c r="BE2" s="55"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="28"/>
-      <c r="BI2" s="28"/>
-      <c r="BJ2" s="29"/>
-    </row>
-    <row r="3" spans="1:65" ht="8.1" customHeight="1">
+      <c r="A2" s="36"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="40"/>
+      <c r="S2" s="40"/>
+      <c r="T2" s="40"/>
+      <c r="U2" s="40"/>
+      <c r="V2" s="40"/>
+      <c r="W2" s="40"/>
+      <c r="X2" s="44"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="45"/>
+      <c r="AG2" s="45"/>
+      <c r="AH2" s="45"/>
+      <c r="AI2" s="45"/>
+      <c r="AJ2" s="45"/>
+      <c r="AK2" s="45"/>
+      <c r="AL2" s="45"/>
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="46"/>
+      <c r="AU2" s="50"/>
+      <c r="AV2" s="51"/>
+      <c r="AW2" s="52"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="57"/>
+      <c r="AZ2" s="57"/>
+      <c r="BA2" s="57"/>
+      <c r="BB2" s="57"/>
+      <c r="BC2" s="58"/>
+      <c r="BD2" s="60"/>
+      <c r="BE2" s="51"/>
+      <c r="BF2" s="52"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="24"/>
+      <c r="BI2" s="24"/>
+      <c r="BJ2" s="25"/>
+    </row>
+    <row r="3" spans="1:65" ht="8.15" customHeight="1">
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:65" s="2" customFormat="1" ht="23.25" customHeight="1">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33" t="s">
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="33" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="32"/>
+      <c r="AW4" s="32"/>
+      <c r="AX4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY4" s="32"/>
+      <c r="AZ4" s="32"/>
+      <c r="BA4" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB4" s="32"/>
+      <c r="BC4" s="32"/>
+      <c r="BD4" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="BE4" s="32"/>
+      <c r="BF4" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="BG4" s="32"/>
+      <c r="BH4" s="32"/>
+      <c r="BI4" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ4" s="32"/>
+    </row>
+    <row r="5" spans="1:65" ht="72" customHeight="1">
+      <c r="A5" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+      <c r="N5" s="62"/>
+      <c r="O5" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="62"/>
+      <c r="Q5" s="62"/>
+      <c r="R5" s="62"/>
+      <c r="S5" s="62"/>
+      <c r="T5" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="62"/>
+      <c r="V5" s="62"/>
+      <c r="W5" s="62"/>
+      <c r="X5" s="62"/>
+      <c r="Y5" s="62"/>
+      <c r="Z5" s="62"/>
+      <c r="AA5" s="62"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="62"/>
+      <c r="AD5" s="62"/>
+      <c r="AE5" s="62"/>
+      <c r="AF5" s="62"/>
+      <c r="AG5" s="62"/>
+      <c r="AH5" s="62"/>
+      <c r="AI5" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ5" s="62"/>
+      <c r="AK5" s="62"/>
+      <c r="AL5" s="62"/>
+      <c r="AM5" s="62"/>
+      <c r="AN5" s="62"/>
+      <c r="AO5" s="62"/>
+      <c r="AP5" s="62"/>
+      <c r="AQ5" s="62"/>
+      <c r="AR5" s="62"/>
+      <c r="AS5" s="62"/>
+      <c r="AT5" s="62"/>
+      <c r="AU5" s="62"/>
+      <c r="AV5" s="62"/>
+      <c r="AW5" s="62"/>
+      <c r="AX5" s="63"/>
+      <c r="AY5" s="63"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="64"/>
+      <c r="BB5" s="64"/>
+      <c r="BC5" s="64"/>
+      <c r="BD5" s="61"/>
+      <c r="BE5" s="61"/>
+      <c r="BF5" s="61"/>
+      <c r="BG5" s="61"/>
+      <c r="BH5" s="61"/>
+      <c r="BI5" s="64"/>
+      <c r="BJ5" s="64"/>
+      <c r="BM5" s="3"/>
+    </row>
+    <row r="6" spans="1:65" ht="72" customHeight="1">
+      <c r="A6" s="61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="61"/>
+      <c r="E6" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62" t="s">
+        <v>34</v>
+      </c>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
+      <c r="M6" s="62"/>
+      <c r="N6" s="62"/>
+      <c r="O6" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="62"/>
+      <c r="Q6" s="62"/>
+      <c r="R6" s="62"/>
+      <c r="S6" s="62"/>
+      <c r="T6" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" s="62"/>
+      <c r="V6" s="62"/>
+      <c r="W6" s="62"/>
+      <c r="X6" s="62"/>
+      <c r="Y6" s="62"/>
+      <c r="Z6" s="62"/>
+      <c r="AA6" s="62"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="62"/>
+      <c r="AD6" s="62"/>
+      <c r="AE6" s="62"/>
+      <c r="AF6" s="62"/>
+      <c r="AG6" s="62"/>
+      <c r="AH6" s="62"/>
+      <c r="AI6" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="AJ6" s="62"/>
+      <c r="AK6" s="62"/>
+      <c r="AL6" s="62"/>
+      <c r="AM6" s="62"/>
+      <c r="AN6" s="62"/>
+      <c r="AO6" s="62"/>
+      <c r="AP6" s="62"/>
+      <c r="AQ6" s="62"/>
+      <c r="AR6" s="62"/>
+      <c r="AS6" s="62"/>
+      <c r="AT6" s="62"/>
+      <c r="AU6" s="62"/>
+      <c r="AV6" s="62"/>
+      <c r="AW6" s="62"/>
+      <c r="AX6" s="63"/>
+      <c r="AY6" s="63"/>
+      <c r="AZ6" s="63"/>
+      <c r="BA6" s="64"/>
+      <c r="BB6" s="64"/>
+      <c r="BC6" s="64"/>
+      <c r="BD6" s="61"/>
+      <c r="BE6" s="61"/>
+      <c r="BF6" s="61"/>
+      <c r="BG6" s="61"/>
+      <c r="BH6" s="61"/>
+      <c r="BI6" s="64"/>
+      <c r="BJ6" s="64"/>
+      <c r="BM6" s="3"/>
+    </row>
+    <row r="7" spans="1:65" ht="75" customHeight="1">
+      <c r="A7" s="61" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="61"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62"/>
+      <c r="J7" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="62"/>
+      <c r="L7" s="62"/>
+      <c r="M7" s="62"/>
+      <c r="N7" s="62"/>
+      <c r="O7" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-      <c r="N4" s="34"/>
-      <c r="O4" s="34"/>
-      <c r="P4" s="34"/>
-      <c r="Q4" s="34"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="36"/>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="36"/>
-      <c r="Z4" s="36"/>
-      <c r="AA4" s="36"/>
-      <c r="AB4" s="36"/>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36"/>
-      <c r="AE4" s="36"/>
-      <c r="AF4" s="36"/>
-      <c r="AG4" s="36"/>
-      <c r="AH4" s="36"/>
-      <c r="AI4" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ4" s="36"/>
-      <c r="AK4" s="36"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="36"/>
-      <c r="AW4" s="36"/>
-      <c r="AX4" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="AY4" s="36"/>
-      <c r="AZ4" s="36"/>
-      <c r="BA4" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36" t="s">
-        <v>7</v>
-      </c>
-      <c r="BJ4" s="36"/>
-    </row>
-    <row r="5" spans="1:65" ht="72" customHeight="1">
-      <c r="A5" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22" t="s">
+      <c r="P7" s="62"/>
+      <c r="Q7" s="62"/>
+      <c r="R7" s="62"/>
+      <c r="S7" s="62"/>
+      <c r="T7" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" s="62"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="62"/>
+      <c r="X7" s="62"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="62"/>
+      <c r="AA7" s="62"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="62"/>
+      <c r="AD7" s="62"/>
+      <c r="AE7" s="62"/>
+      <c r="AF7" s="62"/>
+      <c r="AG7" s="62"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="AJ7" s="62"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="62"/>
+      <c r="AM7" s="62"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="62"/>
+      <c r="AP7" s="62"/>
+      <c r="AQ7" s="62"/>
+      <c r="AR7" s="62"/>
+      <c r="AS7" s="62"/>
+      <c r="AT7" s="62"/>
+      <c r="AU7" s="62"/>
+      <c r="AV7" s="62"/>
+      <c r="AW7" s="62"/>
+      <c r="AX7" s="63"/>
+      <c r="AY7" s="63"/>
+      <c r="AZ7" s="63"/>
+      <c r="BA7" s="64"/>
+      <c r="BB7" s="64"/>
+      <c r="BC7" s="64"/>
+      <c r="BD7" s="61"/>
+      <c r="BE7" s="61"/>
+      <c r="BF7" s="61"/>
+      <c r="BG7" s="61"/>
+      <c r="BH7" s="61"/>
+      <c r="BI7" s="64"/>
+      <c r="BJ7" s="64"/>
+    </row>
+    <row r="8" spans="1:65" ht="75" customHeight="1">
+      <c r="A8" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="61"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62"/>
+      <c r="J8" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="62"/>
+      <c r="L8" s="62"/>
+      <c r="M8" s="62"/>
+      <c r="N8" s="62"/>
+      <c r="O8" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="62"/>
+      <c r="Q8" s="62"/>
+      <c r="R8" s="62"/>
+      <c r="S8" s="62"/>
+      <c r="T8" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="U5" s="22"/>
-      <c r="V5" s="22"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="22"/>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22" t="s">
+      <c r="U8" s="62"/>
+      <c r="V8" s="62"/>
+      <c r="W8" s="62"/>
+      <c r="X8" s="62"/>
+      <c r="Y8" s="62"/>
+      <c r="Z8" s="62"/>
+      <c r="AA8" s="62"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="62"/>
+      <c r="AD8" s="62"/>
+      <c r="AE8" s="62"/>
+      <c r="AF8" s="62"/>
+      <c r="AG8" s="62"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-      <c r="AN5" s="22"/>
-      <c r="AO5" s="22"/>
-      <c r="AP5" s="22"/>
-      <c r="AQ5" s="22"/>
-      <c r="AR5" s="22"/>
-      <c r="AS5" s="22"/>
-      <c r="AT5" s="22"/>
-      <c r="AU5" s="22"/>
-      <c r="AV5" s="22"/>
-      <c r="AW5" s="22"/>
-      <c r="AX5" s="23"/>
-      <c r="AY5" s="23"/>
-      <c r="AZ5" s="23"/>
-      <c r="BA5" s="21"/>
-      <c r="BB5" s="21"/>
-      <c r="BC5" s="21"/>
-      <c r="BD5" s="20"/>
-      <c r="BE5" s="20"/>
-      <c r="BF5" s="20"/>
-      <c r="BG5" s="20"/>
-      <c r="BH5" s="20"/>
-      <c r="BI5" s="21"/>
-      <c r="BJ5" s="21"/>
-      <c r="BM5" s="3"/>
-    </row>
-    <row r="6" spans="1:65" ht="72" customHeight="1">
-      <c r="A6" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22" t="s">
+      <c r="AJ8" s="62"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="62"/>
+      <c r="AM8" s="62"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="62"/>
+      <c r="AP8" s="62"/>
+      <c r="AQ8" s="62"/>
+      <c r="AR8" s="62"/>
+      <c r="AS8" s="62"/>
+      <c r="AT8" s="62"/>
+      <c r="AU8" s="62"/>
+      <c r="AV8" s="62"/>
+      <c r="AW8" s="62"/>
+      <c r="AX8" s="63"/>
+      <c r="AY8" s="63"/>
+      <c r="AZ8" s="63"/>
+      <c r="BA8" s="64"/>
+      <c r="BB8" s="64"/>
+      <c r="BC8" s="64"/>
+      <c r="BD8" s="61"/>
+      <c r="BE8" s="61"/>
+      <c r="BF8" s="61"/>
+      <c r="BG8" s="61"/>
+      <c r="BH8" s="61"/>
+      <c r="BI8" s="64"/>
+      <c r="BJ8" s="64"/>
+    </row>
+    <row r="9" spans="1:65" ht="75" customHeight="1">
+      <c r="A9" s="61" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="62" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="22"/>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-      <c r="AN6" s="22"/>
-      <c r="AO6" s="22"/>
-      <c r="AP6" s="22"/>
-      <c r="AQ6" s="22"/>
-      <c r="AR6" s="22"/>
-      <c r="AS6" s="22"/>
-      <c r="AT6" s="22"/>
-      <c r="AU6" s="22"/>
-      <c r="AV6" s="22"/>
-      <c r="AW6" s="22"/>
-      <c r="AX6" s="23"/>
-      <c r="AY6" s="23"/>
-      <c r="AZ6" s="23"/>
-      <c r="BA6" s="21"/>
-      <c r="BB6" s="21"/>
-      <c r="BC6" s="21"/>
-      <c r="BD6" s="20"/>
-      <c r="BE6" s="20"/>
-      <c r="BF6" s="20"/>
-      <c r="BG6" s="20"/>
-      <c r="BH6" s="20"/>
-      <c r="BI6" s="21"/>
-      <c r="BJ6" s="21"/>
-      <c r="BM6" s="3"/>
-    </row>
-    <row r="7" spans="1:65" ht="75" customHeight="1">
-      <c r="A7" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22" t="s">
+      <c r="K9" s="62"/>
+      <c r="L9" s="62"/>
+      <c r="M9" s="62"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="62"/>
+      <c r="Q9" s="62"/>
+      <c r="R9" s="62"/>
+      <c r="S9" s="62"/>
+      <c r="T9" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="22"/>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22" t="s">
+      <c r="U9" s="62"/>
+      <c r="V9" s="62"/>
+      <c r="W9" s="62"/>
+      <c r="X9" s="62"/>
+      <c r="Y9" s="62"/>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="62"/>
+      <c r="AE9" s="62"/>
+      <c r="AF9" s="62"/>
+      <c r="AG9" s="62"/>
+      <c r="AH9" s="62"/>
+      <c r="AI9" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-      <c r="AN7" s="22"/>
-      <c r="AO7" s="22"/>
-      <c r="AP7" s="22"/>
-      <c r="AQ7" s="22"/>
-      <c r="AR7" s="22"/>
-      <c r="AS7" s="22"/>
-      <c r="AT7" s="22"/>
-      <c r="AU7" s="22"/>
-      <c r="AV7" s="22"/>
-      <c r="AW7" s="22"/>
-      <c r="AX7" s="23"/>
-      <c r="AY7" s="23"/>
-      <c r="AZ7" s="23"/>
-      <c r="BA7" s="21"/>
-      <c r="BB7" s="21"/>
-      <c r="BC7" s="21"/>
-      <c r="BD7" s="20"/>
-      <c r="BE7" s="20"/>
-      <c r="BF7" s="20"/>
-      <c r="BG7" s="20"/>
-      <c r="BH7" s="20"/>
-      <c r="BI7" s="21"/>
-      <c r="BJ7" s="21"/>
-    </row>
-    <row r="8" spans="1:65" ht="75" customHeight="1">
-      <c r="A8" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="22"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
-      <c r="AN8" s="22"/>
-      <c r="AO8" s="22"/>
-      <c r="AP8" s="22"/>
-      <c r="AQ8" s="22"/>
-      <c r="AR8" s="22"/>
-      <c r="AS8" s="22"/>
-      <c r="AT8" s="22"/>
-      <c r="AU8" s="22"/>
-      <c r="AV8" s="22"/>
-      <c r="AW8" s="22"/>
-      <c r="AX8" s="23"/>
-      <c r="AY8" s="23"/>
-      <c r="AZ8" s="23"/>
-      <c r="BA8" s="21"/>
-      <c r="BB8" s="21"/>
-      <c r="BC8" s="21"/>
-      <c r="BD8" s="20"/>
-      <c r="BE8" s="20"/>
-      <c r="BF8" s="20"/>
-      <c r="BG8" s="20"/>
-      <c r="BH8" s="20"/>
-      <c r="BI8" s="21"/>
-      <c r="BJ8" s="21"/>
-    </row>
-    <row r="9" spans="1:65" ht="75" customHeight="1">
-      <c r="A9" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="22"/>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="22"/>
-      <c r="AN9" s="22"/>
-      <c r="AO9" s="22"/>
-      <c r="AP9" s="22"/>
-      <c r="AQ9" s="22"/>
-      <c r="AR9" s="22"/>
-      <c r="AS9" s="22"/>
-      <c r="AT9" s="22"/>
-      <c r="AU9" s="22"/>
-      <c r="AV9" s="22"/>
-      <c r="AW9" s="22"/>
-      <c r="AX9" s="23"/>
-      <c r="AY9" s="23"/>
-      <c r="AZ9" s="23"/>
-      <c r="BA9" s="21"/>
-      <c r="BB9" s="21"/>
-      <c r="BC9" s="21"/>
-      <c r="BD9" s="20"/>
-      <c r="BE9" s="20"/>
-      <c r="BF9" s="20"/>
-      <c r="BG9" s="20"/>
-      <c r="BH9" s="20"/>
-      <c r="BI9" s="21"/>
-      <c r="BJ9" s="21"/>
+      <c r="AJ9" s="62"/>
+      <c r="AK9" s="62"/>
+      <c r="AL9" s="62"/>
+      <c r="AM9" s="62"/>
+      <c r="AN9" s="62"/>
+      <c r="AO9" s="62"/>
+      <c r="AP9" s="62"/>
+      <c r="AQ9" s="62"/>
+      <c r="AR9" s="62"/>
+      <c r="AS9" s="62"/>
+      <c r="AT9" s="62"/>
+      <c r="AU9" s="62"/>
+      <c r="AV9" s="62"/>
+      <c r="AW9" s="62"/>
+      <c r="AX9" s="63"/>
+      <c r="AY9" s="63"/>
+      <c r="AZ9" s="63"/>
+      <c r="BA9" s="64"/>
+      <c r="BB9" s="64"/>
+      <c r="BC9" s="64"/>
+      <c r="BD9" s="61"/>
+      <c r="BE9" s="61"/>
+      <c r="BF9" s="61"/>
+      <c r="BG9" s="61"/>
+      <c r="BH9" s="61"/>
+      <c r="BI9" s="64"/>
+      <c r="BJ9" s="64"/>
     </row>
     <row r="10" spans="1:65" ht="75" customHeight="1">
-      <c r="A10" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="22"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-      <c r="AN10" s="22"/>
-      <c r="AO10" s="22"/>
-      <c r="AP10" s="22"/>
-      <c r="AQ10" s="22"/>
-      <c r="AR10" s="22"/>
-      <c r="AS10" s="22"/>
-      <c r="AT10" s="22"/>
-      <c r="AU10" s="22"/>
-      <c r="AV10" s="22"/>
-      <c r="AW10" s="22"/>
-      <c r="AX10" s="23"/>
-      <c r="AY10" s="23"/>
-      <c r="AZ10" s="23"/>
-      <c r="BA10" s="21"/>
-      <c r="BB10" s="21"/>
-      <c r="BC10" s="21"/>
-      <c r="BD10" s="20"/>
-      <c r="BE10" s="20"/>
-      <c r="BF10" s="20"/>
-      <c r="BG10" s="20"/>
-      <c r="BH10" s="20"/>
-      <c r="BI10" s="21"/>
-      <c r="BJ10" s="21"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="62"/>
+      <c r="H10" s="62"/>
+      <c r="I10" s="62"/>
+      <c r="J10" s="62"/>
+      <c r="K10" s="62"/>
+      <c r="L10" s="62"/>
+      <c r="M10" s="62"/>
+      <c r="N10" s="62"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="62"/>
+      <c r="Q10" s="62"/>
+      <c r="R10" s="62"/>
+      <c r="S10" s="62"/>
+      <c r="T10" s="62"/>
+      <c r="U10" s="62"/>
+      <c r="V10" s="62"/>
+      <c r="W10" s="62"/>
+      <c r="X10" s="62"/>
+      <c r="Y10" s="62"/>
+      <c r="Z10" s="62"/>
+      <c r="AA10" s="62"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="62"/>
+      <c r="AD10" s="62"/>
+      <c r="AE10" s="62"/>
+      <c r="AF10" s="62"/>
+      <c r="AG10" s="62"/>
+      <c r="AH10" s="62"/>
+      <c r="AI10" s="62"/>
+      <c r="AJ10" s="62"/>
+      <c r="AK10" s="62"/>
+      <c r="AL10" s="62"/>
+      <c r="AM10" s="62"/>
+      <c r="AN10" s="62"/>
+      <c r="AO10" s="62"/>
+      <c r="AP10" s="62"/>
+      <c r="AQ10" s="62"/>
+      <c r="AR10" s="62"/>
+      <c r="AS10" s="62"/>
+      <c r="AT10" s="62"/>
+      <c r="AU10" s="62"/>
+      <c r="AV10" s="62"/>
+      <c r="AW10" s="62"/>
+      <c r="AX10" s="63"/>
+      <c r="AY10" s="63"/>
+      <c r="AZ10" s="63"/>
+      <c r="BA10" s="64"/>
+      <c r="BB10" s="64"/>
+      <c r="BC10" s="64"/>
+      <c r="BD10" s="61"/>
+      <c r="BE10" s="61"/>
+      <c r="BF10" s="61"/>
+      <c r="BG10" s="61"/>
+      <c r="BH10" s="61"/>
+      <c r="BI10" s="64"/>
+      <c r="BJ10" s="64"/>
     </row>
     <row r="11" spans="1:65" ht="16.149999999999999" customHeight="1">
       <c r="A11" s="4"/>
@@ -3422,6 +3399,73 @@
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="BA10:BC10"/>
+    <mergeCell ref="BD10:BE10"/>
+    <mergeCell ref="BF10:BH10"/>
+    <mergeCell ref="BI10:BJ10"/>
+    <mergeCell ref="AI8:AW8"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:N10"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T10:AH10"/>
+    <mergeCell ref="AI10:AW10"/>
+    <mergeCell ref="BI9:BJ9"/>
+    <mergeCell ref="AX8:AZ8"/>
+    <mergeCell ref="BA8:BC8"/>
+    <mergeCell ref="BD8:BE8"/>
+    <mergeCell ref="BF8:BH8"/>
+    <mergeCell ref="BI8:BJ8"/>
+    <mergeCell ref="AI9:AW9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="BA9:BC9"/>
+    <mergeCell ref="BD9:BE9"/>
+    <mergeCell ref="BF9:BH9"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="O8:S8"/>
+    <mergeCell ref="T8:AH8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:N9"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="T9:AH9"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BA7:BC7"/>
+    <mergeCell ref="BD7:BE7"/>
+    <mergeCell ref="AI7:AW7"/>
+    <mergeCell ref="AX7:AZ7"/>
+    <mergeCell ref="BF7:BH7"/>
+    <mergeCell ref="BI7:BJ7"/>
+    <mergeCell ref="AI6:AW6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BA6:BC6"/>
+    <mergeCell ref="BD6:BE6"/>
+    <mergeCell ref="BF6:BH6"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:N6"/>
+    <mergeCell ref="O6:S6"/>
+    <mergeCell ref="T6:AH6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:N7"/>
+    <mergeCell ref="O7:S7"/>
+    <mergeCell ref="T7:AH7"/>
+    <mergeCell ref="BI4:BJ4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="O5:S5"/>
+    <mergeCell ref="T5:AH5"/>
+    <mergeCell ref="AI5:AW5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BE5"/>
+    <mergeCell ref="BF5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
     <mergeCell ref="BG1:BJ2"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:I4"/>
@@ -3438,73 +3482,6 @@
     <mergeCell ref="AU1:AW2"/>
     <mergeCell ref="AX1:BC2"/>
     <mergeCell ref="BD1:BF2"/>
-    <mergeCell ref="BI4:BJ4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="O5:S5"/>
-    <mergeCell ref="T5:AH5"/>
-    <mergeCell ref="AI5:AW5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BE5"/>
-    <mergeCell ref="BF5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:N7"/>
-    <mergeCell ref="O7:S7"/>
-    <mergeCell ref="T7:AH7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:N6"/>
-    <mergeCell ref="O6:S6"/>
-    <mergeCell ref="T6:AH6"/>
-    <mergeCell ref="AI6:AW6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BA6:BC6"/>
-    <mergeCell ref="BD6:BE6"/>
-    <mergeCell ref="BF6:BH6"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BA7:BC7"/>
-    <mergeCell ref="BD7:BE7"/>
-    <mergeCell ref="AI7:AW7"/>
-    <mergeCell ref="AX7:AZ7"/>
-    <mergeCell ref="BF7:BH7"/>
-    <mergeCell ref="BI7:BJ7"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="T9:AH9"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="O8:S8"/>
-    <mergeCell ref="T8:AH8"/>
-    <mergeCell ref="AI9:AW9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="BA9:BC9"/>
-    <mergeCell ref="BD9:BE9"/>
-    <mergeCell ref="BF9:BH9"/>
-    <mergeCell ref="BI9:BJ9"/>
-    <mergeCell ref="AX8:AZ8"/>
-    <mergeCell ref="BA8:BC8"/>
-    <mergeCell ref="BD8:BE8"/>
-    <mergeCell ref="BF8:BH8"/>
-    <mergeCell ref="BI8:BJ8"/>
-    <mergeCell ref="AI8:AW8"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:N10"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="T10:AH10"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="BA10:BC10"/>
-    <mergeCell ref="BD10:BE10"/>
-    <mergeCell ref="BF10:BH10"/>
-    <mergeCell ref="BI10:BJ10"/>
-    <mergeCell ref="AI10:AW10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3517,24 +3494,24 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD107DEB-1185-49DC-BBCE-820C45DD6FCA}">
-  <dimension ref="A3:BN106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:BN106"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E17" sqref="E17:I17"/>
-      <selection pane="bottomLeft" activeCell="B106" sqref="B106"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.149999999999999" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="16.149999999999999" customHeight="1"/>
   <cols>
-    <col min="1" max="45" width="10.28515625" style="1" customWidth="1"/>
-    <col min="46" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="45" width="10.26953125" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:66" ht="16.149999999999999" customHeight="1">
+    <row r="3" spans="2:66" ht="16.149999999999999" customHeight="1">
       <c r="B3" s="65" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C3" s="65"/>
       <c r="D3" s="65"/>
@@ -3550,7 +3527,7 @@
       <c r="BM3" s="66"/>
       <c r="BN3" s="66"/>
     </row>
-    <row r="4" spans="1:66" ht="16.149999999999999" customHeight="1">
+    <row r="4" spans="2:66" ht="16.149999999999999" customHeight="1">
       <c r="B4" s="65"/>
       <c r="C4" s="65"/>
       <c r="D4" s="65"/>
@@ -3566,66 +3543,36 @@
       <c r="BM4" s="66"/>
       <c r="BN4" s="66"/>
     </row>
-    <row r="5" spans="1:66" ht="16.149999999999999" customHeight="1">
-      <c r="O5" s="3" t="s">
-        <v>25</v>
-      </c>
+    <row r="5" spans="2:66" ht="16.149999999999999" customHeight="1">
+      <c r="O5" s="3"/>
       <c r="T5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="AI5" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AX5" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="BA5" s="8">
         <v>44939</v>
       </c>
     </row>
-    <row r="6" spans="1:66" ht="16.149999999999999" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>25</v>
-      </c>
+    <row r="6" spans="2:66" ht="16.149999999999999" customHeight="1">
+      <c r="O6" s="3"/>
       <c r="AX6" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="BA6" s="8">
         <v>44939</v>
       </c>
     </row>
-    <row r="8" spans="1:66" ht="16.149999999999999" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:66" ht="16.149999999999999" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:66" ht="16.149999999999999" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:66" ht="16.149999999999999" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:66" ht="16.149999999999999" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>34</v>
-      </c>
+    <row r="16" spans="2:66" ht="16.149999999999999" customHeight="1">
       <c r="T16" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="AI16" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="2:62" ht="16.149999999999999" customHeight="1">
@@ -3690,7 +3637,7 @@
     </row>
     <row r="29" spans="2:62" ht="16.149999999999999" customHeight="1">
       <c r="B29" s="65" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="C29" s="65"/>
       <c r="D29" s="65"/>
@@ -3758,7 +3705,7 @@
     </row>
     <row r="56" spans="2:60" ht="16.149999999999999" customHeight="1">
       <c r="B56" s="65" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="C56" s="65"/>
       <c r="D56" s="65"/>
@@ -3807,7 +3754,7 @@
     </row>
     <row r="83" spans="2:8" ht="16.149999999999999" customHeight="1">
       <c r="B83" s="65" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="C83" s="65"/>
       <c r="D83" s="65"/>
@@ -3827,7 +3774,7 @@
     </row>
     <row r="104" spans="2:8" ht="16.149999999999999" customHeight="1">
       <c r="B104" s="65" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C104" s="65"/>
       <c r="D104" s="65"/>
@@ -3845,7 +3792,7 @@
       <c r="G105" s="65"/>
       <c r="H105" s="65"/>
     </row>
-    <row r="106" spans="2:8" ht="16.350000000000001" customHeight="1">
+    <row r="106" spans="2:8" ht="16.399999999999999" customHeight="1">
       <c r="B106" s="6"/>
     </row>
   </sheetData>
